--- a/2022 Data/Attendees/2022 Lille.xlsx
+++ b/2022 Data/Attendees/2022 Lille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alyssa/code/alyssageorgee/uaces/2022 Data/Attendees/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC3BF48-8C1F-A745-900E-3EF96AF3FB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E1D52-F92B-D643-9E6F-F110222FFE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{08D6D6D4-E06A-480B-8560-80740194A596}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="512">
   <si>
     <t>organisation</t>
   </si>
@@ -884,10 +884,694 @@
     <t>Non-Member</t>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
     <t>number of attendants</t>
+  </si>
+  <si>
+    <t>Abyei</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Aksai Chin</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antigua &amp; Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Azores Islands</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia &amp; Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guantanamo</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hala'ib Triangle</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Ilemi Triangle</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jammu-Kashmir</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Kuril Islands</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Ma'tan al-Sarra</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Madeira Islands</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t>Midway Is.</t>
+  </si>
+  <si>
+    <t>Moldova, Republic of</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Island</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of Korea</t>
+  </si>
+  <si>
+    <t>Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia &amp; the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>U.K. of Great Britain and Northern Ireland</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Republic of Tanzania</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -1250,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4906C4A9-8FFD-4A3A-AEEC-AEEEF698D499}">
   <dimension ref="A1:G312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="F254" sqref="F254:G254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1277,10 +1961,10 @@
         <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1297,10 +1981,7 @@
         <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1317,10 +1998,7 @@
         <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3">
-        <v>47</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1337,10 +2015,7 @@
         <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1357,10 +2032,7 @@
         <v>277</v>
       </c>
       <c r="F5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1377,10 +2049,7 @@
         <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1397,10 +2066,7 @@
         <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1417,10 +2083,7 @@
         <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1437,10 +2100,7 @@
         <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1457,10 +2117,7 @@
         <v>275</v>
       </c>
       <c r="F10" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1477,10 +2134,7 @@
         <v>273</v>
       </c>
       <c r="F11" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11">
-        <v>34</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1497,10 +2151,7 @@
         <v>273</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1517,10 +2168,7 @@
         <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13">
-        <v>21</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1537,10 +2185,7 @@
         <v>277</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1557,10 +2202,7 @@
         <v>276</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1577,10 +2219,7 @@
         <v>276</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16">
-        <v>6</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1597,7 +2236,7 @@
         <v>281</v>
       </c>
       <c r="F17" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="G17">
         <v>6</v>
@@ -1617,10 +2256,7 @@
         <v>276</v>
       </c>
       <c r="F18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1637,10 +2273,7 @@
         <v>275</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,10 +2290,7 @@
         <v>277</v>
       </c>
       <c r="F20" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1677,10 +2307,7 @@
         <v>273</v>
       </c>
       <c r="F21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1697,10 +2324,7 @@
         <v>273</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22">
-        <v>19</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1717,10 +2341,7 @@
         <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23">
-        <v>4</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1737,10 +2358,7 @@
         <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>259</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1757,10 +2375,10 @@
         <v>277</v>
       </c>
       <c r="F25" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,10 +2395,7 @@
         <v>277</v>
       </c>
       <c r="F26" t="s">
-        <v>253</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1797,10 +2412,7 @@
         <v>275</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1817,10 +2429,7 @@
         <v>277</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28">
-        <v>6</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1837,10 +2446,7 @@
         <v>277</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1857,10 +2463,7 @@
         <v>278</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1877,10 +2480,7 @@
         <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>265</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1897,10 +2497,7 @@
         <v>276</v>
       </c>
       <c r="F32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G32">
-        <v>95</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1917,10 +2514,7 @@
         <v>273</v>
       </c>
       <c r="F33" t="s">
-        <v>227</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1937,7 +2531,7 @@
         <v>278</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1956,6 +2550,9 @@
       <c r="D35" t="s">
         <v>277</v>
       </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1970,6 +2567,9 @@
       <c r="D36" t="s">
         <v>273</v>
       </c>
+      <c r="F36" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1984,6 +2584,9 @@
       <c r="D37" t="s">
         <v>276</v>
       </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1998,6 +2601,12 @@
       <c r="D38" t="s">
         <v>277</v>
       </c>
+      <c r="F38" t="s">
+        <v>255</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -2012,6 +2621,9 @@
       <c r="D39" t="s">
         <v>273</v>
       </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -2026,6 +2638,9 @@
       <c r="D40" t="s">
         <v>276</v>
       </c>
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2040,6 +2655,9 @@
       <c r="D41" t="s">
         <v>276</v>
       </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -2054,6 +2672,9 @@
       <c r="D42" t="s">
         <v>276</v>
       </c>
+      <c r="F42" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -2068,6 +2689,9 @@
       <c r="D43" t="s">
         <v>273</v>
       </c>
+      <c r="F43" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -2082,6 +2706,9 @@
       <c r="D44" t="s">
         <v>273</v>
       </c>
+      <c r="F44" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -2096,6 +2723,9 @@
       <c r="D45" t="s">
         <v>276</v>
       </c>
+      <c r="F45" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -2110,6 +2740,9 @@
       <c r="D46" t="s">
         <v>273</v>
       </c>
+      <c r="F46" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
@@ -2124,6 +2757,9 @@
       <c r="D47" t="s">
         <v>273</v>
       </c>
+      <c r="F47" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -2138,8 +2774,11 @@
       <c r="D48" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -2152,8 +2791,11 @@
       <c r="D49" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2166,8 +2808,11 @@
       <c r="D50" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -2180,8 +2825,11 @@
       <c r="D51" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>195</v>
       </c>
@@ -2194,8 +2842,11 @@
       <c r="D52" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>198</v>
       </c>
@@ -2208,8 +2859,11 @@
       <c r="D53" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>201</v>
       </c>
@@ -2222,8 +2876,11 @@
       <c r="D54" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -2236,8 +2893,11 @@
       <c r="D55" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>188</v>
       </c>
@@ -2250,8 +2910,11 @@
       <c r="D56" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -2264,8 +2927,11 @@
       <c r="D57" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>142</v>
       </c>
@@ -2278,8 +2944,14 @@
       <c r="D58" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -2292,8 +2964,11 @@
       <c r="D59" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -2306,8 +2981,11 @@
       <c r="D60" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>131</v>
       </c>
@@ -2320,8 +2998,14 @@
       <c r="D61" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>231</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>25</v>
       </c>
@@ -2334,8 +3018,11 @@
       <c r="D62" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -2348,8 +3035,11 @@
       <c r="D63" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -2362,8 +3052,14 @@
       <c r="D64" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>261</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2376,8 +3072,11 @@
       <c r="D65" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2390,8 +3089,11 @@
       <c r="D66" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2404,8 +3106,11 @@
       <c r="D67" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2418,8 +3123,11 @@
       <c r="D68" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -2432,8 +3140,11 @@
       <c r="D69" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -2446,8 +3157,11 @@
       <c r="D70" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>191</v>
       </c>
@@ -2460,8 +3174,11 @@
       <c r="D71" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>191</v>
       </c>
@@ -2474,8 +3191,11 @@
       <c r="D72" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>180</v>
       </c>
@@ -2488,8 +3208,11 @@
       <c r="D73" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>30</v>
       </c>
@@ -2502,8 +3225,14 @@
       <c r="D74" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -2516,8 +3245,11 @@
       <c r="D75" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +3262,11 @@
       <c r="D76" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2544,8 +3279,11 @@
       <c r="D77" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2558,8 +3296,14 @@
       <c r="D78" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>233</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -2572,8 +3316,14 @@
       <c r="D79" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -2586,8 +3336,11 @@
       <c r="D80" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>65</v>
       </c>
@@ -2600,8 +3353,11 @@
       <c r="D81" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -2614,8 +3370,11 @@
       <c r="D82" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2628,8 +3387,11 @@
       <c r="D83" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2642,8 +3404,11 @@
       <c r="D84" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -2656,8 +3421,11 @@
       <c r="D85" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2670,8 +3438,11 @@
       <c r="D86" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2684,8 +3455,14 @@
       <c r="D87" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -2698,8 +3475,14 @@
       <c r="D88" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>225</v>
+      </c>
+      <c r="G88">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>112</v>
       </c>
@@ -2712,8 +3495,11 @@
       <c r="D89" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -2726,8 +3512,11 @@
       <c r="D90" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -2740,8 +3529,11 @@
       <c r="D91" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2754,8 +3546,14 @@
       <c r="D92" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>217</v>
+      </c>
+      <c r="G92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>65</v>
       </c>
@@ -2768,8 +3566,11 @@
       <c r="D93" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>58</v>
       </c>
@@ -2782,8 +3583,11 @@
       <c r="D94" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -2796,8 +3600,11 @@
       <c r="D95" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -2810,8 +3617,11 @@
       <c r="D96" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>58</v>
       </c>
@@ -2824,8 +3634,11 @@
       <c r="D97" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -2838,8 +3651,11 @@
       <c r="D98" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>177</v>
       </c>
@@ -2852,8 +3668,11 @@
       <c r="D99" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>177</v>
       </c>
@@ -2866,8 +3685,11 @@
       <c r="D100" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -2880,8 +3702,11 @@
       <c r="D101" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>177</v>
       </c>
@@ -2894,8 +3719,11 @@
       <c r="D102" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>177</v>
       </c>
@@ -2908,8 +3736,11 @@
       <c r="D103" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -2922,8 +3753,11 @@
       <c r="D104" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>177</v>
       </c>
@@ -2936,8 +3770,11 @@
       <c r="D105" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -2950,8 +3787,11 @@
       <c r="D106" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>178</v>
       </c>
@@ -2964,8 +3804,11 @@
       <c r="D107" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -2978,8 +3821,11 @@
       <c r="D108" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>202</v>
       </c>
@@ -2992,8 +3838,14 @@
       <c r="D109" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>257</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>38</v>
       </c>
@@ -3006,8 +3858,11 @@
       <c r="D110" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>21</v>
       </c>
@@ -3020,8 +3875,11 @@
       <c r="D111" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>29</v>
       </c>
@@ -3034,8 +3892,11 @@
       <c r="D112" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>41</v>
       </c>
@@ -3048,8 +3909,11 @@
       <c r="D113" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>42</v>
       </c>
@@ -3062,8 +3926,11 @@
       <c r="D114" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>44</v>
       </c>
@@ -3076,8 +3943,11 @@
       <c r="D115" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>85</v>
       </c>
@@ -3090,8 +3960,14 @@
       <c r="D116" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>243</v>
+      </c>
+      <c r="G116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>102</v>
       </c>
@@ -3104,8 +3980,11 @@
       <c r="D117" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -3118,8 +3997,11 @@
       <c r="D118" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>42</v>
       </c>
@@ -3132,8 +4014,14 @@
       <c r="D119" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>213</v>
+      </c>
+      <c r="G119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>121</v>
       </c>
@@ -3146,8 +4034,11 @@
       <c r="D120" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3160,8 +4051,11 @@
       <c r="D121" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>139</v>
       </c>
@@ -3174,8 +4068,11 @@
       <c r="D122" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3188,8 +4085,14 @@
       <c r="D123" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>267</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>145</v>
       </c>
@@ -3202,8 +4105,11 @@
       <c r="D124" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -3216,8 +4122,11 @@
       <c r="D125" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -3230,8 +4139,11 @@
       <c r="D126" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>156</v>
       </c>
@@ -3244,8 +4156,11 @@
       <c r="D127" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -3258,8 +4173,11 @@
       <c r="D128" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>29</v>
       </c>
@@ -3272,8 +4190,11 @@
       <c r="D129" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>193</v>
       </c>
@@ -3286,8 +4207,11 @@
       <c r="D130" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>197</v>
       </c>
@@ -3300,8 +4224,11 @@
       <c r="D131" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -3314,8 +4241,11 @@
       <c r="D132" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -3328,8 +4258,11 @@
       <c r="D133" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>186</v>
       </c>
@@ -3342,8 +4275,11 @@
       <c r="D134" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>82</v>
       </c>
@@ -3356,8 +4292,11 @@
       <c r="D135" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>82</v>
       </c>
@@ -3370,8 +4309,11 @@
       <c r="D136" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>49</v>
       </c>
@@ -3384,8 +4326,11 @@
       <c r="D137" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>78</v>
       </c>
@@ -3398,8 +4343,11 @@
       <c r="D138" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -3412,8 +4360,11 @@
       <c r="D139" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>183</v>
       </c>
@@ -3426,8 +4377,11 @@
       <c r="D140" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>184</v>
       </c>
@@ -3440,8 +4394,14 @@
       <c r="D141" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>245</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>192</v>
       </c>
@@ -3454,8 +4414,11 @@
       <c r="D142" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3468,8 +4431,11 @@
       <c r="D143" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -3482,8 +4448,11 @@
       <c r="D144" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F144" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>53</v>
       </c>
@@ -3496,8 +4465,11 @@
       <c r="D145" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F145" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>110</v>
       </c>
@@ -3510,8 +4482,11 @@
       <c r="D146" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F146" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>120</v>
       </c>
@@ -3524,8 +4499,11 @@
       <c r="D147" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F147" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>184</v>
       </c>
@@ -3538,8 +4516,11 @@
       <c r="D148" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F148" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -3552,8 +4533,11 @@
       <c r="D149" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F149" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>56</v>
       </c>
@@ -3566,8 +4550,11 @@
       <c r="D150" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F150" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>56</v>
       </c>
@@ -3580,8 +4567,11 @@
       <c r="D151" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F151" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>24</v>
       </c>
@@ -3594,8 +4584,11 @@
       <c r="D152" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F152" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -3608,8 +4601,11 @@
       <c r="D153" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F153" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>24</v>
       </c>
@@ -3622,8 +4618,11 @@
       <c r="D154" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F154" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -3636,8 +4635,11 @@
       <c r="D155" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F155" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -3650,8 +4652,11 @@
       <c r="D156" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F156" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>24</v>
       </c>
@@ -3664,8 +4669,11 @@
       <c r="D157" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F157" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>69</v>
       </c>
@@ -3678,8 +4686,11 @@
       <c r="D158" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F158" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>111</v>
       </c>
@@ -3692,8 +4703,11 @@
       <c r="D159" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -3706,8 +4720,11 @@
       <c r="D160" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>137</v>
       </c>
@@ -3720,8 +4737,11 @@
       <c r="D161" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>27</v>
       </c>
@@ -3734,8 +4754,11 @@
       <c r="D162" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -3748,8 +4771,11 @@
       <c r="D163" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -3762,8 +4788,11 @@
       <c r="D164" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>69</v>
       </c>
@@ -3776,8 +4805,11 @@
       <c r="D165" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F165" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>69</v>
       </c>
@@ -3790,8 +4822,11 @@
       <c r="D166" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>24</v>
       </c>
@@ -3804,8 +4839,11 @@
       <c r="D167" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>68</v>
       </c>
@@ -3818,8 +4856,11 @@
       <c r="D168" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>136</v>
       </c>
@@ -3832,8 +4873,11 @@
       <c r="D169" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F169" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>68</v>
       </c>
@@ -3846,8 +4890,14 @@
       <c r="D170" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>229</v>
+      </c>
+      <c r="G170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>31</v>
       </c>
@@ -3860,8 +4910,11 @@
       <c r="D171" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F171" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>39</v>
       </c>
@@ -3874,8 +4927,11 @@
       <c r="D172" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F172" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>86</v>
       </c>
@@ -3888,8 +4944,11 @@
       <c r="D173" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>88</v>
       </c>
@@ -3902,8 +4961,11 @@
       <c r="D174" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>95</v>
       </c>
@@ -3916,8 +4978,11 @@
       <c r="D175" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>104</v>
       </c>
@@ -3930,8 +4995,11 @@
       <c r="D176" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F176" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>107</v>
       </c>
@@ -3944,8 +5012,11 @@
       <c r="D177" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F177" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>95</v>
       </c>
@@ -3958,8 +5029,11 @@
       <c r="D178" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F178" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>88</v>
       </c>
@@ -3972,8 +5046,11 @@
       <c r="D179" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F179" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>95</v>
       </c>
@@ -3986,8 +5063,14 @@
       <c r="D180" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>249</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>137</v>
       </c>
@@ -4000,8 +5083,11 @@
       <c r="D181" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F181" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>137</v>
       </c>
@@ -4014,8 +5100,11 @@
       <c r="D182" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F182" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>137</v>
       </c>
@@ -4028,8 +5117,11 @@
       <c r="D183" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F183" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>155</v>
       </c>
@@ -4042,8 +5134,11 @@
       <c r="D184" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F184" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>95</v>
       </c>
@@ -4056,8 +5151,11 @@
       <c r="D185" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>86</v>
       </c>
@@ -4070,8 +5168,11 @@
       <c r="D186" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -4084,8 +5185,11 @@
       <c r="D187" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F187" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>170</v>
       </c>
@@ -4098,8 +5202,11 @@
       <c r="D188" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F188" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>86</v>
       </c>
@@ -4112,8 +5219,11 @@
       <c r="D189" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F189" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>20</v>
       </c>
@@ -4126,8 +5236,11 @@
       <c r="D190" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F190" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>43</v>
       </c>
@@ -4140,8 +5253,11 @@
       <c r="D191" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F191" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>52</v>
       </c>
@@ -4154,8 +5270,14 @@
       <c r="D192" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F192" t="s">
+        <v>235</v>
+      </c>
+      <c r="G192">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>189</v>
       </c>
@@ -4168,8 +5290,14 @@
       <c r="D193" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>223</v>
+      </c>
+      <c r="G193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>92</v>
       </c>
@@ -4182,8 +5310,11 @@
       <c r="D194" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>125</v>
       </c>
@@ -4196,8 +5327,11 @@
       <c r="D195" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>127</v>
       </c>
@@ -4210,8 +5344,11 @@
       <c r="D196" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F196" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -4224,8 +5361,11 @@
       <c r="D197" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F197" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>67</v>
       </c>
@@ -4238,8 +5378,11 @@
       <c r="D198" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>77</v>
       </c>
@@ -4252,8 +5395,14 @@
       <c r="D199" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>259</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>147</v>
       </c>
@@ -4266,8 +5415,14 @@
       <c r="D200" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>455</v>
+      </c>
+      <c r="G200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -4280,8 +5435,11 @@
       <c r="D201" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F201" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>57</v>
       </c>
@@ -4294,8 +5452,11 @@
       <c r="D202" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F202" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>58</v>
       </c>
@@ -4308,8 +5469,11 @@
       <c r="D203" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>64</v>
       </c>
@@ -4322,8 +5486,11 @@
       <c r="D204" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F204" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>133</v>
       </c>
@@ -4336,8 +5503,11 @@
       <c r="D205" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F205" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>32</v>
       </c>
@@ -4350,8 +5520,11 @@
       <c r="D206" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>97</v>
       </c>
@@ -4364,8 +5537,11 @@
       <c r="D207" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F207" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>105</v>
       </c>
@@ -4378,8 +5554,11 @@
       <c r="D208" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>117</v>
       </c>
@@ -4392,8 +5571,11 @@
       <c r="D209" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>163</v>
       </c>
@@ -4406,8 +5588,14 @@
       <c r="D210" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F210" t="s">
+        <v>253</v>
+      </c>
+      <c r="G210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>173</v>
       </c>
@@ -4420,8 +5608,11 @@
       <c r="D211" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +5625,11 @@
       <c r="D212" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>34</v>
       </c>
@@ -4448,8 +5642,11 @@
       <c r="D213" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F213" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>169</v>
       </c>
@@ -4462,8 +5659,11 @@
       <c r="D214" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1</v>
       </c>
@@ -4476,8 +5676,11 @@
       <c r="D215" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1</v>
       </c>
@@ -4490,8 +5693,11 @@
       <c r="D216" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F216" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1</v>
       </c>
@@ -4504,8 +5710,11 @@
       <c r="D217" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F217" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -4518,8 +5727,11 @@
       <c r="D218" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>11</v>
       </c>
@@ -4532,8 +5744,11 @@
       <c r="D219" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F219" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>12</v>
       </c>
@@ -4546,8 +5761,11 @@
       <c r="D220" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -4560,8 +5778,11 @@
       <c r="D221" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F221" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -4574,8 +5795,14 @@
       <c r="D222" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F222" t="s">
+        <v>215</v>
+      </c>
+      <c r="G222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -4588,8 +5815,11 @@
       <c r="D223" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F223" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>33</v>
       </c>
@@ -4602,8 +5832,11 @@
       <c r="D224" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1</v>
       </c>
@@ -4616,8 +5849,11 @@
       <c r="D225" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F225" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>36</v>
       </c>
@@ -4630,8 +5866,11 @@
       <c r="D226" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F226" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>37</v>
       </c>
@@ -4644,8 +5883,11 @@
       <c r="D227" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F227" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -4658,8 +5900,11 @@
       <c r="D228" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F228" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>37</v>
       </c>
@@ -4672,8 +5917,14 @@
       <c r="D229" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F229" t="s">
+        <v>237</v>
+      </c>
+      <c r="G229">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>46</v>
       </c>
@@ -4686,8 +5937,14 @@
       <c r="D230" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>251</v>
+      </c>
+      <c r="G230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>50</v>
       </c>
@@ -4700,8 +5957,11 @@
       <c r="D231" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F231" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -4714,8 +5974,11 @@
       <c r="D232" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F232" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>37</v>
       </c>
@@ -4728,8 +5991,11 @@
       <c r="D233" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F233" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>53</v>
       </c>
@@ -4742,8 +6008,11 @@
       <c r="D234" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F234" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -4756,8 +6025,11 @@
       <c r="D235" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +6042,11 @@
       <c r="D236" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F236" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -4784,8 +6059,11 @@
       <c r="D237" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F237" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>62</v>
       </c>
@@ -4798,8 +6076,11 @@
       <c r="D238" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F238" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>50</v>
       </c>
@@ -4812,8 +6093,11 @@
       <c r="D239" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F239" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>62</v>
       </c>
@@ -4826,8 +6110,11 @@
       <c r="D240" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F240" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -4840,8 +6127,11 @@
       <c r="D241" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F241" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>73</v>
       </c>
@@ -4854,8 +6144,14 @@
       <c r="D242" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F242" t="s">
+        <v>239</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>74</v>
       </c>
@@ -4868,8 +6164,11 @@
       <c r="D243" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F243" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -4882,8 +6181,11 @@
       <c r="D244" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F244" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>80</v>
       </c>
@@ -4896,8 +6198,11 @@
       <c r="D245" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F245" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>83</v>
       </c>
@@ -4910,8 +6215,14 @@
       <c r="D246" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F246" t="s">
+        <v>496</v>
+      </c>
+      <c r="G246">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>84</v>
       </c>
@@ -4924,8 +6235,11 @@
       <c r="D247" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F247" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>89</v>
       </c>
@@ -4938,8 +6252,14 @@
       <c r="D248" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F248" t="s">
+        <v>265</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>89</v>
       </c>
@@ -4952,8 +6272,11 @@
       <c r="D249" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F249" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>93</v>
       </c>
@@ -4966,8 +6289,11 @@
       <c r="D250" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>50</v>
       </c>
@@ -4980,8 +6306,14 @@
       <c r="D251" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F251" t="s">
+        <v>500</v>
+      </c>
+      <c r="G251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>96</v>
       </c>
@@ -4994,8 +6326,11 @@
       <c r="D252" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>98</v>
       </c>
@@ -5008,8 +6343,14 @@
       <c r="D253" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F253" t="s">
+        <v>263</v>
+      </c>
+      <c r="G253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>100</v>
       </c>
@@ -5022,8 +6363,11 @@
       <c r="D254" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F254" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>106</v>
       </c>
@@ -5036,8 +6380,11 @@
       <c r="D255" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F255" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>73</v>
       </c>
@@ -5050,8 +6397,11 @@
       <c r="D256" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F256" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>108</v>
       </c>
@@ -5064,8 +6414,11 @@
       <c r="D257" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>62</v>
       </c>
@@ -5078,8 +6431,11 @@
       <c r="D258" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>38</v>
       </c>
@@ -5092,8 +6448,11 @@
       <c r="D259" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F259" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>114</v>
       </c>
@@ -5106,8 +6465,11 @@
       <c r="D260" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F260" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>115</v>
       </c>
@@ -5120,8 +6482,11 @@
       <c r="D261" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F261" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>116</v>
       </c>
@@ -5134,8 +6499,11 @@
       <c r="D262" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F262" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>118</v>
       </c>
@@ -5149,7 +6517,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>119</v>
       </c>
@@ -5163,7 +6531,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>124</v>
       </c>
@@ -5177,7 +6545,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>126</v>
       </c>
@@ -5191,7 +6559,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>116</v>
       </c>
@@ -5205,7 +6573,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>132</v>
       </c>
@@ -5219,7 +6587,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>116</v>
       </c>
@@ -5233,7 +6601,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>134</v>
       </c>
@@ -5247,7 +6615,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>135</v>
       </c>
@@ -5261,7 +6629,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>62</v>
       </c>
@@ -5836,8 +7204,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D312">
-    <sortCondition ref="C1:C312"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:G282">
+    <sortCondition ref="F1:F282"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
